--- a/src/excelExportAndFileIO/dataExcel.xlsx
+++ b/src/excelExportAndFileIO/dataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="-29700" yWindow="2500" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QA_Worksheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>Try to Join</t>
-  </si>
-  <si>
     <t>What are some quick fixes I can try for joining?</t>
   </si>
   <si>
@@ -36,24 +33,12 @@
     <t>I am having Download issues</t>
   </si>
   <si>
-    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W060002</t>
-  </si>
-  <si>
     <t>http://test.com</t>
   </si>
   <si>
     <t>http://anothertest.com</t>
   </si>
   <si>
-    <t>Join Page Article 1 Test</t>
-  </si>
-  <si>
-    <t>Join Page Article 2 Test</t>
-  </si>
-  <si>
-    <t>Join Page Article 3 Test</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -61,6 +46,21 @@
   </si>
   <si>
     <t>ArticleURL</t>
+  </si>
+  <si>
+    <t>Trying to Join</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W060002?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Join Page Trying to Join Article 1 Test</t>
+  </si>
+  <si>
+    <t>Join Page Trying to Join Article 2 Test</t>
+  </si>
+  <si>
+    <t>Join Page Trying to Join Article 3 Test</t>
   </si>
 </sst>
 </file>
@@ -504,79 +504,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="104.5" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/excelExportAndFileIO/dataExcel.xlsx
+++ b/src/excelExportAndFileIO/dataExcel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29700" yWindow="2500" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-32520" yWindow="3660" windowWidth="28840" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QA_Worksheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>CategoryName</t>
   </si>
@@ -33,12 +34,6 @@
     <t>I am having Download issues</t>
   </si>
   <si>
-    <t>http://test.com</t>
-  </si>
-  <si>
-    <t>http://anothertest.com</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -61,6 +56,105 @@
   </si>
   <si>
     <t>Join Page Trying to Join Article 3 Test</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W090002?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W030004?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 1 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 2 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 3 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 4 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 5 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 6 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 1 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 2 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 3 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 4 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 5 Test</t>
+  </si>
+  <si>
+    <t>Join Page - During Your Webinar - Article 6 Test</t>
+  </si>
+  <si>
+    <t>During Your Webinar</t>
+  </si>
+  <si>
+    <t>How do I install GoToWebinar on a Mac?</t>
+  </si>
+  <si>
+    <t>How do I install GoToWebinar on a PC?</t>
+  </si>
+  <si>
+    <t>I'm still having trouble joining - what else can I try?</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/help_files/G2W060005?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/help_files/G2W060021?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/webinar/all_files/G2W060007?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>https://support.citrixonline.com/en_US/webinar/knowledge_articles/000025306?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>I registered for the webinar but now I see "The session is full"</t>
+  </si>
+  <si>
+    <t>I can only hear the audio or see the screen, but not both</t>
+  </si>
+  <si>
+    <t>It says I've connected, but the webinar isn't started</t>
+  </si>
+  <si>
+    <t>How do I unmute myself?</t>
+  </si>
+  <si>
+    <t>Why can't anyone hear me?</t>
+  </si>
+  <si>
+    <t>I have a question or feedback about the presentation itself (materials, certification, etc.)</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/webinar/help_files/G2W090003?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/webinar/knowledge_articles/000161527?title=Waiting+for+Organizer&amp;__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W050039?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W050053?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>https://support.citrixonline.com/en_US/webinar/knowledge_articles/000064729?__col_mkt_cookies=__col_visit</t>
   </si>
 </sst>
 </file>
@@ -502,43 +596,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.5" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -546,13 +640,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -560,22 +654,147 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -585,4 +804,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/excelExportAndFileIO/dataExcel.xlsx
+++ b/src/excelExportAndFileIO/dataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32520" yWindow="3660" windowWidth="28840" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="28840" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QA_Worksheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>CategoryName</t>
   </si>
@@ -155,6 +155,66 @@
   </si>
   <si>
     <t>https://support.citrixonline.com/en_US/webinar/knowledge_articles/000064729?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 7 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 8 Test</t>
+  </si>
+  <si>
+    <t>Join Page - Trying to Join - Article 9 Test</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W090078?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>What does "Waiting for Organizer" mean?</t>
+  </si>
+  <si>
+    <t>Why am I being asked to log in?</t>
+  </si>
+  <si>
+    <t>What is my webinar password?</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W090080?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/Webinar/all_files/G2W090079?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Join Page - Video - Article 1 Test</t>
+  </si>
+  <si>
+    <t>Join Page - More Help - Article 1 Test</t>
+  </si>
+  <si>
+    <t>Join Page - More Help - Article 2 Test</t>
+  </si>
+  <si>
+    <t>More Help</t>
+  </si>
+  <si>
+    <t>Attendee QuickStart (5:37)</t>
+  </si>
+  <si>
+    <t>http://support.citrixonline.com/en_US/webinar/video/G2WV00069?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Need to see if your system meets the GoToWebinar System Requirements?</t>
+  </si>
+  <si>
+    <t>https://joincheck.gotowebinar.com/?__col_mkt_cookies=__col_visit</t>
+  </si>
+  <si>
+    <t>Still Need Help? Contact Support</t>
+  </si>
+  <si>
+    <t>citrix.com/contactus</t>
+  </si>
+  <si>
+    <t>Videos</t>
   </si>
 </sst>
 </file>
@@ -210,7 +270,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,6 +281,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -242,7 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -262,6 +327,11 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -596,17 +666,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5" customWidth="1"/>
     <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,94 +772,178 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
